--- a/data/unchecked/manual_collect/china/xianggang/xianggangCaseStatistics_20200403.xlsx
+++ b/data/unchecked/manual_collect/china/xianggang/xianggangCaseStatistics_20200403.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\xianggang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ABD8B6-12E4-4696-BBB9-F7192375425C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AE5C18-DC01-45EE-A6F2-60E4BD1B6D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10310,8 +10310,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -10446,17 +10446,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
@@ -10739,7 +10739,7 @@
   <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -10939,7 +10939,9 @@
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
-      <c r="I2"/>
+      <c r="I2">
+        <v>43</v>
+      </c>
       <c r="J2"/>
       <c r="K2" s="12">
         <v>19</v>
